--- a/docs/PTA2_DDC_100/PTA2_DDC_100_16.08.2024_output.xlsx
+++ b/docs/PTA2_DDC_100/PTA2_DDC_100_16.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731784853.851147</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731784854.190185</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731784853.851147.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731784854.190185.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>277.92</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>277.29</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.6299999999999955</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731784857.0614774</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731784858.526834</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731784857.0614774.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731784858.526834.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>278</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.74</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.2599999999999909</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731784861.6174667</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731784861.6174667.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731784861.6174667.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>278.44</v>
       </c>
-      <c r="J5" t="n">
-        <v>278.44</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>278.27</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1700000000000159</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731784864.968914</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731784865.24318</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784864.968914.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784865.24318.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>277.92</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>277.29</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.6299999999999955</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731784867.6357517</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731784868.8555162</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784867.6357517.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784868.8555162.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>278</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>277.74</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.2599999999999909</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731784871.2650712</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731784872.8499615</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784871.2650712.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784872.8499615.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>278.44</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>277.93</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.5099999999999909</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731784874.7217133</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731784875.0622382</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784874.7217133.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784875.0622382.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>278.29</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>277.84</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.4500000000000455</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731784875.4487383</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731784876.0682828</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784875.4487383.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784876.0682828.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>278.3</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>277.93</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.3700000000000045</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731784878.1602833</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731784879.6459205</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784878.1602833.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784879.6459205.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>278.57</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>278.26</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731784881.618654</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731784882.939625</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784881.618654.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784882.939625.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>278.03</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>278.45</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.4200000000000159</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1051,95 +1127,107 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731784883.1348662</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731784883.1348662.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731784883.1348662.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>278.76</v>
       </c>
-      <c r="J13" t="n">
-        <v>278.76</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>278.65</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.1100000000000136</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731784885.8897235</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731784886.9150536</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731784885.8897235.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731784886.9150536.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>127.29</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>127.55</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.2599999999999909</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1147,51 +1235,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731784888.5894144</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731784890.0539246</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731784888.5894144.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731784890.0539246.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>127.09</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>127.24</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.1499999999999915</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1199,51 +1293,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731784891.3348866</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731784891.5797641</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731784891.3348866.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731784891.5797641.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>127.68</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>127.12</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -1251,95 +1351,107 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731784895.1559427</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731784895.1559427.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731784895.1559427.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>127.56</v>
       </c>
-      <c r="J17" t="n">
-        <v>127.56</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>127.95</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.3900000000000006</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731784897.9414139</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731784898.850977</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784897.9414139.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784898.850977.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6317</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6329.5</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>12.5</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1347,51 +1459,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731784900.6687481</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731784901.1370368</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784900.6687481.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784901.1370368.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6308</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6317</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>9</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1399,51 +1517,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731784901.4806724</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731784903.2807238</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784901.4806724.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784903.2807238.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6301</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6313</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>12</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1451,51 +1575,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731784905.828734</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731784906.2459013</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784905.828734.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784906.2459013.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6299</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6304</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>5</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1503,95 +1633,107 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731784907.3445039</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731784907.3445039.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731784907.3445039.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6318.5</v>
       </c>
-      <c r="J22" t="n">
-        <v>6318.5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>6326</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731784912.6890047</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731784913.4271982</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784912.6890047.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784913.4271982.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>493.6</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>494.6</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1599,51 +1741,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731784914.308693</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731784914.5540514</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784914.308693.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784914.5540514.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>493</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>494.3</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>1.300000000000011</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1651,51 +1799,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731784916.6437483</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731784918.507316</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784916.6437483.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784918.507316.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>493.1</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>493.35</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.25</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1703,95 +1857,107 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731784921.013162</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731784921.013162.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731784921.013162.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>494.3</v>
       </c>
-      <c r="J26" t="n">
-        <v>494.3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>494.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731784923.863987</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731784926.183808</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731784923.863987.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731784926.183808.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>223.9</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>223.62</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1799,51 +1965,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731784926.2257092</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731784927.3068182</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731784926.2257092.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731784927.3068182.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>223.35</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>223.55</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.2000000000000171</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1851,51 +2023,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731784927.7083802</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731784929.8964446</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731784927.7083802.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731784929.8964446.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>223.9</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>223.57</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.3300000000000125</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1903,43 +2081,49 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731784932.5966666</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731784932.5966666.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731784932.5966666.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>223.8</v>
       </c>
-      <c r="J30" t="n">
-        <v>223.8</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
       <c r="L30" t="n">
+        <v>223.79</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.01000000000001933</v>
+      </c>
+      <c r="N30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1947,51 +2131,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731784936.2953064</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731784939.1681094</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731784936.2953064.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731784939.1681094.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1024.6</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1020</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-4.599999999999909</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.45</v>
       </c>
     </row>
@@ -1999,51 +2189,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731784940.6493616</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731784942.5716934</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731784940.6493616.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731784942.5716934.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1015</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1016.4</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>1.399999999999977</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2051,95 +2247,107 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731784943.537645</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731784943.537645.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731784943.537645.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1017.4</v>
       </c>
-      <c r="J33" t="n">
-        <v>1017.4</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1021</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-3.600000000000023</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731784945.8359609</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731784946.8518186</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731784945.8359609.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731784946.8518186.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>12.124</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>12.106</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.01800000000000068</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2147,51 +2355,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731784951.4878607</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731784955.3993676</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731784951.4878607.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731784955.3993676.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>12.092</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>12.085</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.006999999999999673</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -2199,51 +2413,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731784955.586098</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731784955.8311057</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731784955.586098.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731784955.8311057.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>12.099</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>12.086</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.0129999999999999</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2251,51 +2471,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731784956.6617074</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731784957.821953</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731784956.6617074.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731784957.821953.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>125</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>125.22</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -2303,51 +2529,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731784960.2622983</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731784960.7168005</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731784960.2622983.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731784960.7168005.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>124.6</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>124.8</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2355,51 +2587,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731784962.776763</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731784965.1362891</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731784962.776763.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731784965.1362891.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>125.02</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>125.22</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.2000000000000028</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -2407,95 +2645,107 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731784966.0786655</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731784966.0786655.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731784966.0786655.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>126.02</v>
       </c>
-      <c r="J40" t="n">
-        <v>126.02</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>127.1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-1.079999999999998</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.86</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731784967.8666234</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731784969.131637</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731784967.8666234.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731784969.131637.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>161.3</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>162</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.6999999999999886</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -2503,51 +2753,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731784971.6011176</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731784974.9924433</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731784971.6011176.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731784974.9924433.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>162</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>162.14</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.1399999999999864</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -2555,95 +2811,107 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731784976.2910612</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731784976.2910612.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731784976.2910612.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>162.6</v>
       </c>
-      <c r="J43" t="n">
-        <v>162.6</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>162.94</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.3400000000000034</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731784979.663422</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731784980.7567978</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784979.663422.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784980.7567978.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>49.625</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>49.755</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.1300000000000026</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -2651,51 +2919,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731784983.120562</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731784983.2947984</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784983.120562.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784983.2947984.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>49.66</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>49.725</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.06500000000000483</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2703,51 +2977,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731784985.5859911</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731784987.548439</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784985.5859911.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784987.548439.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>49.675</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>49.71</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.03500000000000369</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -2755,95 +3035,107 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731784987.7390127</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731784987.7390127.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731784987.7390127.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>49.8</v>
       </c>
-      <c r="J47" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>49.775</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.02499999999999858</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731784990.41614</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731784991.5309274</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731784990.41614.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731784991.5309274.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1381</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1383.2</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>2.200000000000045</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2851,51 +3143,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731784992.9660792</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731784994.959083</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731784992.9660792.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731784994.959083.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1376.2</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1379.2</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>3</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -2903,51 +3201,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731784995.704045</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731784996.363672</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731784995.704045.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731784996.363672.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1380.2</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1376.2</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>4</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2955,95 +3259,107 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731784998.293743</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731784998.293743.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731784998.293743.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1380.6</v>
       </c>
-      <c r="J51" t="n">
-        <v>1380.6</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1387.8</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-7.200000000000045</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731785002.8643894</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731785003.5002105</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731785002.8643894.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731785003.5002105.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>58.91</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>58.81</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -3051,51 +3367,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731785004.7819393</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731785006.3599398</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731785004.7819393.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731785006.3599398.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>58.74</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>58.83</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.08999999999999631</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -3103,51 +3425,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731785007.5832763</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731785007.784022</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731785007.5832763.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731785007.784022.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>58.88</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>58.8</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.0800000000000054</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -3155,51 +3483,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731785008.2358298</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731785011.3631217</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731785008.2358298.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731785011.3631217.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>58.68</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>58.72</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3207,51 +3541,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731785017.1698427</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731785019.3065226</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731785017.1698427.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731785019.3065226.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>98.56999999999999</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>98.67</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.1000000000000085</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -3259,51 +3599,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731785020.0644124</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731785022.975508</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731785020.0644124.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731785022.975508.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>98.88</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>98.76000000000001</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.1199999999999903</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -3311,95 +3657,107 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731785023.9299197</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731785023.9299197.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731785023.9299197.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>99.04000000000001</v>
       </c>
-      <c r="J58" t="n">
-        <v>99.04000000000001</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>99.36</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-0.3199999999999932</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731785026.1957653</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731785034.4102678</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/SELG1731785026.1957653.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/SELG1731785034.4102678.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>54.7</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>54.5</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.2000000000000028</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -3407,95 +3765,107 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731785034.5417047</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731785034.5417047.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731785034.5417047.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>54.68</v>
       </c>
-      <c r="J60" t="n">
-        <v>54.68</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>55.08</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.3999999999999986</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.73</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731785038.90331</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731785040.2059922</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731785038.90331.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731785040.2059922.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>152.98</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>152.66</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.3199999999999932</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -3503,51 +3873,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731785041.9482605</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731785043.5761476</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731785041.9482605.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731785043.5761476.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>152.16</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>152.78</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.6200000000000045</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -3555,43 +3931,49 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731785045.4327996</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731785045.4327996.png</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731785045.4327996.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>153.28</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>153.28</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3599,51 +3981,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731785050.9079394</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731785055.0007093</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731785050.9079394.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731785055.0007093.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>19.759</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>19.752</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.00700000000000145</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -3651,95 +4039,107 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731785058.6689754</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731785058.6689754.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731785058.6689754.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>19.885</v>
       </c>
-      <c r="J65" t="n">
-        <v>19.885</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>19.97</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.0849999999999973</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731785064.9090102</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731785066.632945</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731785064.9090102.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731785066.632945.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>675.45</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>675.7</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.25</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -3747,51 +4147,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731785067.061779</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731785067.3333933</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731785067.061779.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731785067.3333933.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>677.35</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>675.6</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>1.75</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -3799,51 +4205,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731785068.8939</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731785070.1693537</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731785068.8939.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731785070.1693537.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>674.1</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>674.95</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.8500000000000227</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3851,51 +4263,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731785075.4912038</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731785080.8691316</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731785075.4912038.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731785080.8691316.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>148.75</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>148.59</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.1599999999999966</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -3903,44 +4321,50 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731785081.7670841</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731785081.7670841.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731785081.7670841.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>148.83</v>
       </c>
-      <c r="J70" t="n">
-        <v>148.83</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>149.02</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-0.1899999999999977</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.13</v>
       </c>
     </row>
   </sheetData>
@@ -4001,19 +4425,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.950000000000045</v>
+        <v>3.060000000000059</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3687500000000057</v>
+        <v>0.3825000000000074</v>
       </c>
       <c r="E2" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="F2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -4023,19 +4447,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.5</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>7.7</v>
+        <v>6.2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.61</v>
+        <v>0.49</v>
       </c>
       <c r="F3" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -4045,19 +4469,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.200000000000045</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.300000000000011</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.1499999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
@@ -4067,19 +4491,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9699999999999847</v>
+        <v>0.5799999999999841</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2424999999999962</v>
+        <v>0.144999999999996</v>
       </c>
       <c r="E5" t="n">
-        <v>0.76</v>
+        <v>0.45</v>
       </c>
       <c r="F5" t="n">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -4089,19 +4513,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2199999999999989</v>
+        <v>-0.8599999999999994</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05499999999999972</v>
+        <v>-0.2149999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.18</v>
+        <v>-0.6799999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="7">
@@ -4111,19 +4535,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2300000000000111</v>
+        <v>0.2550000000000097</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05750000000000277</v>
+        <v>0.06375000000000242</v>
       </c>
       <c r="E7" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="F7" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8">
@@ -4133,13 +4557,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8100000000000307</v>
+        <v>0.82000000000005</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2025000000000077</v>
+        <v>0.2050000000000125</v>
       </c>
       <c r="E8" t="n">
         <v>0.37</v>
@@ -4177,19 +4601,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.550000000000011</v>
+        <v>2.350000000000023</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6375000000000028</v>
+        <v>0.5875000000000057</v>
       </c>
       <c r="E10" t="n">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="F10" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="11">
@@ -4199,19 +4623,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5600000000000023</v>
+        <v>0.2199999999999989</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1866666666666674</v>
+        <v>0.07333333333333296</v>
       </c>
       <c r="E11" t="n">
-        <v>0.34</v>
+        <v>0.13</v>
       </c>
       <c r="F11" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="12">
@@ -4265,19 +4689,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2199999999999989</v>
+        <v>-0.09999999999999432</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07333333333333296</v>
+        <v>-0.03333333333333144</v>
       </c>
       <c r="E14" t="n">
-        <v>0.22</v>
+        <v>-0.1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="15">
@@ -4287,19 +4711,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.199999999999932</v>
+        <v>-6.799999999999955</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.066666666666644</v>
+        <v>-2.266666666666652</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.3099999999999999</v>
+        <v>-0.66</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="16">
@@ -4309,19 +4733,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8899999999999864</v>
+        <v>1.060000000000002</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2966666666666621</v>
+        <v>0.3533333333333341</v>
       </c>
       <c r="E16" t="n">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="F16" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="17">
@@ -4353,19 +4777,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.00700000000000145</v>
+        <v>-0.09199999999999875</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.003500000000000725</v>
+        <v>-0.04599999999999937</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.04</v>
+        <v>-0.47</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="19">
@@ -4375,19 +4799,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.2000000000000028</v>
+        <v>-0.6000000000000014</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1000000000000014</v>
+        <v>-0.3000000000000007</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.37</v>
+        <v>-1.1</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.18</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="20">
@@ -4397,19 +4821,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.1599999999999966</v>
+        <v>-0.3499999999999943</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.07999999999999829</v>
+        <v>-0.1749999999999972</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.11</v>
+        <v>-0.24</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.06</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="21">
